--- a/reports/air_raw_data/date_city_quantity.xlsx
+++ b/reports/air_raw_data/date_city_quantity.xlsx
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="81">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
